--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.59345044122903</v>
+        <v>1.593927</v>
       </c>
       <c r="H2">
-        <v>1.59345044122903</v>
+        <v>3.187854</v>
       </c>
       <c r="I2">
-        <v>0.2172875978911277</v>
+        <v>0.1926821744909273</v>
       </c>
       <c r="J2">
-        <v>0.2172875978911277</v>
+        <v>0.1419711187769723</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N2">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O2">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P2">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q2">
-        <v>5.156472479294243</v>
+        <v>9.387273142490999</v>
       </c>
       <c r="R2">
-        <v>5.156472479294243</v>
+        <v>56.323638854946</v>
       </c>
       <c r="S2">
-        <v>0.1623786751024813</v>
+        <v>0.157232362634463</v>
       </c>
       <c r="T2">
-        <v>0.1623786751024813</v>
+        <v>0.1158511652161805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.59345044122903</v>
+        <v>1.593927</v>
       </c>
       <c r="H3">
-        <v>1.59345044122903</v>
+        <v>3.187854</v>
       </c>
       <c r="I3">
-        <v>0.2172875978911277</v>
+        <v>0.1926821744909273</v>
       </c>
       <c r="J3">
-        <v>0.2172875978911277</v>
+        <v>0.1419711187769723</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N3">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O3">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P3">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q3">
-        <v>1.743679390465855</v>
+        <v>2.116466744955</v>
       </c>
       <c r="R3">
-        <v>1.743679390465855</v>
+        <v>12.69880046973</v>
       </c>
       <c r="S3">
-        <v>0.0549089227886464</v>
+        <v>0.03544981185646428</v>
       </c>
       <c r="T3">
-        <v>0.0549089227886464</v>
+        <v>0.02611995356079184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.811432899068696</v>
+        <v>0.813729</v>
       </c>
       <c r="H4">
-        <v>0.811432899068696</v>
+        <v>2.441187</v>
       </c>
       <c r="I4">
-        <v>0.1106493813215047</v>
+        <v>0.09836778796414627</v>
       </c>
       <c r="J4">
-        <v>0.1106493813215047</v>
+        <v>0.1087182943553252</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N4">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O4">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P4">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q4">
-        <v>2.625830904169476</v>
+        <v>4.792375301357001</v>
       </c>
       <c r="R4">
-        <v>2.625830904169476</v>
+        <v>43.13137771221301</v>
       </c>
       <c r="S4">
-        <v>0.08268810605977436</v>
+        <v>0.08027000810838826</v>
       </c>
       <c r="T4">
-        <v>0.08268810605977436</v>
+        <v>0.08871622052345936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.811432899068696</v>
+        <v>0.813729</v>
       </c>
       <c r="H5">
-        <v>0.811432899068696</v>
+        <v>2.441187</v>
       </c>
       <c r="I5">
-        <v>0.1106493813215047</v>
+        <v>0.09836778796414627</v>
       </c>
       <c r="J5">
-        <v>0.1106493813215047</v>
+        <v>0.1087182943553252</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N5">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O5">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P5">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q5">
-        <v>0.887933999227957</v>
+        <v>1.080495134285</v>
       </c>
       <c r="R5">
-        <v>0.887933999227957</v>
+        <v>9.724456208565002</v>
       </c>
       <c r="S5">
-        <v>0.02796127526173032</v>
+        <v>0.01809777985575802</v>
       </c>
       <c r="T5">
-        <v>0.02796127526173032</v>
+        <v>0.02000207383186581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.52276338238924</v>
+        <v>2.145019</v>
       </c>
       <c r="H6">
-        <v>1.52276338238924</v>
+        <v>6.435057</v>
       </c>
       <c r="I6">
-        <v>0.2076485022406598</v>
+        <v>0.2593010377792423</v>
       </c>
       <c r="J6">
-        <v>0.2076485022406598</v>
+        <v>0.2865853460301467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N6">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O6">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P6">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q6">
-        <v>4.927726191290146</v>
+        <v>12.63287418359367</v>
       </c>
       <c r="R6">
-        <v>4.927726191290146</v>
+        <v>113.695867652343</v>
       </c>
       <c r="S6">
-        <v>0.1551753943073514</v>
+        <v>0.211594637185902</v>
       </c>
       <c r="T6">
-        <v>0.1551753943073514</v>
+        <v>0.2338591578166813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.52276338238924</v>
+        <v>2.145019</v>
       </c>
       <c r="H7">
-        <v>1.52276338238924</v>
+        <v>6.435057</v>
       </c>
       <c r="I7">
-        <v>0.2076485022406598</v>
+        <v>0.2593010377792423</v>
       </c>
       <c r="J7">
-        <v>0.2076485022406598</v>
+        <v>0.2865853460301467</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N7">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O7">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P7">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q7">
-        <v>1.666328024849161</v>
+        <v>2.848224153801667</v>
       </c>
       <c r="R7">
-        <v>1.666328024849161</v>
+        <v>25.63401738421501</v>
       </c>
       <c r="S7">
-        <v>0.05247310793330841</v>
+        <v>0.04770640059334032</v>
       </c>
       <c r="T7">
-        <v>0.05247310793330841</v>
+        <v>0.05272618821346539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.902059689436886</v>
+        <v>1.113821666666667</v>
       </c>
       <c r="H8">
-        <v>0.902059689436886</v>
+        <v>3.341465</v>
       </c>
       <c r="I8">
-        <v>0.1230075175234052</v>
+        <v>0.1346445481684181</v>
       </c>
       <c r="J8">
-        <v>0.1230075175234052</v>
+        <v>0.1488121866321657</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N8">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O8">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P8">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q8">
-        <v>2.919102999949185</v>
+        <v>6.559740952392779</v>
       </c>
       <c r="R8">
-        <v>2.919102999949185</v>
+        <v>59.03766857153501</v>
       </c>
       <c r="S8">
-        <v>0.09192332151926907</v>
+        <v>0.109872542596653</v>
       </c>
       <c r="T8">
-        <v>0.09192332151926907</v>
+        <v>0.1214336082452598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.902059689436886</v>
+        <v>1.113821666666667</v>
       </c>
       <c r="H9">
-        <v>0.902059689436886</v>
+        <v>3.341465</v>
       </c>
       <c r="I9">
-        <v>0.1230075175234052</v>
+        <v>0.1346445481684181</v>
       </c>
       <c r="J9">
-        <v>0.1230075175234052</v>
+        <v>0.1488121866321657</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N9">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O9">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P9">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q9">
-        <v>0.9871049947608951</v>
+        <v>1.478967680019445</v>
       </c>
       <c r="R9">
-        <v>0.9871049947608951</v>
+        <v>13.310709120175</v>
       </c>
       <c r="S9">
-        <v>0.0310841960041361</v>
+        <v>0.02477200557176509</v>
       </c>
       <c r="T9">
-        <v>0.0310841960041361</v>
+        <v>0.02737857838690584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.76972174534833</v>
+        <v>1.83705</v>
       </c>
       <c r="H10">
-        <v>1.76972174534833</v>
+        <v>5.51115</v>
       </c>
       <c r="I10">
-        <v>0.2413244723731963</v>
+        <v>0.222072145492584</v>
       </c>
       <c r="J10">
-        <v>0.2413244723731963</v>
+        <v>0.2454391359352439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N10">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O10">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P10">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q10">
-        <v>5.726893814694805</v>
+        <v>10.81912165765</v>
       </c>
       <c r="R10">
-        <v>5.726893814694805</v>
+        <v>97.37209491885001</v>
       </c>
       <c r="S10">
-        <v>0.1803413930389122</v>
+        <v>0.1812151445942256</v>
       </c>
       <c r="T10">
-        <v>0.1803413930389122</v>
+        <v>0.2002830585030409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.76972174534833</v>
+        <v>1.83705</v>
       </c>
       <c r="H11">
-        <v>1.76972174534833</v>
+        <v>5.51115</v>
       </c>
       <c r="I11">
-        <v>0.2413244723731963</v>
+        <v>0.222072145492584</v>
       </c>
       <c r="J11">
-        <v>0.2413244723731963</v>
+        <v>0.2454391359352439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N11">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O11">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P11">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q11">
-        <v>1.936569380747758</v>
+        <v>2.43929316325</v>
       </c>
       <c r="R11">
-        <v>1.936569380747758</v>
+        <v>21.95363846925</v>
       </c>
       <c r="S11">
-        <v>0.06098307933428414</v>
+        <v>0.0408570008983584</v>
       </c>
       <c r="T11">
-        <v>0.06098307933428414</v>
+        <v>0.04515607743220297</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.733942254342261</v>
+        <v>0.768765</v>
       </c>
       <c r="H12">
-        <v>0.733942254342261</v>
+        <v>1.53753</v>
       </c>
       <c r="I12">
-        <v>0.1000825286501063</v>
+        <v>0.09293230610468217</v>
       </c>
       <c r="J12">
-        <v>0.1000825286501063</v>
+        <v>0.06847391827014609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.23604195391044</v>
+        <v>5.889399666666667</v>
       </c>
       <c r="N12">
-        <v>3.23604195391044</v>
+        <v>17.668199</v>
       </c>
       <c r="O12">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225522</v>
       </c>
       <c r="P12">
-        <v>0.7472984039514368</v>
+        <v>0.8160192454225521</v>
       </c>
       <c r="Q12">
-        <v>2.375067926799164</v>
+        <v>4.527564334745001</v>
       </c>
       <c r="R12">
-        <v>2.375067926799164</v>
+        <v>27.16538600847</v>
       </c>
       <c r="S12">
-        <v>0.07479151392364841</v>
+        <v>0.07583455030292038</v>
       </c>
       <c r="T12">
-        <v>0.07479151392364841</v>
+        <v>0.05587603511793012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.733942254342261</v>
+        <v>0.768765</v>
       </c>
       <c r="H13">
-        <v>0.733942254342261</v>
+        <v>1.53753</v>
       </c>
       <c r="I13">
-        <v>0.1000825286501063</v>
+        <v>0.09293230610468217</v>
       </c>
       <c r="J13">
-        <v>0.1000825286501063</v>
+        <v>0.06847391827014609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.09427902202026</v>
+        <v>1.327831666666667</v>
       </c>
       <c r="N13">
-        <v>1.09427902202026</v>
+        <v>3.983495</v>
       </c>
       <c r="O13">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774479</v>
       </c>
       <c r="P13">
-        <v>0.2527015960485633</v>
+        <v>0.1839807545774478</v>
       </c>
       <c r="Q13">
-        <v>0.8031376123009943</v>
+        <v>1.020790511225</v>
       </c>
       <c r="R13">
-        <v>0.8031376123009943</v>
+        <v>6.124743067350001</v>
       </c>
       <c r="S13">
-        <v>0.02529101472645793</v>
+        <v>0.01709775580176179</v>
       </c>
       <c r="T13">
-        <v>0.02529101472645793</v>
+        <v>0.01259788315221597</v>
       </c>
     </row>
   </sheetData>
